--- a/demo/okrTemplate.xlsx
+++ b/demo/okrTemplate.xlsx
@@ -179,10 +179,48 @@
     </r>
   </si>
   <si>
-    <t>{{okrs.category_merge}}</t>
-  </si>
-  <si>
-    <t>{{okrs.info_merge}}</t>
+    <r>
+      <t>{{okrs.category</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <charset val="0"/>
+      </rPr>
+      <t>_merge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <charset val="0"/>
+      </rPr>
+      <t>}}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{{okrs.info</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <charset val="0"/>
+      </rPr>
+      <t>_merge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <charset val="0"/>
+      </rPr>
+      <t>}}</t>
+    </r>
   </si>
   <si>
     <t>{{okrs.keyResult}}</t>
@@ -200,7 +238,34 @@
     <t>{{okrs.weightScore}}</t>
   </si>
   <si>
-    <t>{{okrs.remark}}</t>
+    <r>
+      <t>这段文字会被自动重复并合并，如果只要重复不合并则要去掉_merge后缀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <charset val="0"/>
+      </rPr>
+      <t>{{okrs.remark</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <charset val="0"/>
+      </rPr>
+      <t>_merge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <charset val="0"/>
+      </rPr>
+      <t>}}</t>
+    </r>
   </si>
   <si>
     <t>绩效评估总得分</t>
@@ -216,7 +281,43 @@
     <t>{{reviewResult}}</t>
   </si>
   <si>
-    <t>线上事故</t>
+    <r>
+      <t>线上事故{{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="0"/>
+      </rPr>
+      <t>_header_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="0"/>
+      </rPr>
+      <t>accident.title</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="0"/>
+      </rPr>
+      <t>_merge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="0"/>
+      </rPr>
+      <t>}}</t>
+    </r>
   </si>
   <si>
     <t>事故等级</t>
@@ -225,7 +326,26 @@
     <t>事故描述</t>
   </si>
   <si>
-    <t>{{accident.title_merge}}</t>
+    <r>
+      <t>{{accident.title</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <charset val="0"/>
+      </rPr>
+      <t>_merge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <charset val="0"/>
+      </rPr>
+      <t>}}</t>
+    </r>
   </si>
   <si>
     <t>{{accident.level}}</t>
@@ -1051,7 +1171,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1078,6 +1198,12 @@
     <font>
       <sz val="12"/>
       <name val="宋体-简"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="方正书宋_GBK"/>
       <charset val="0"/>
     </font>
     <font>
@@ -1223,6 +1349,18 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="方正书宋_GBK"/>
+      <charset val="0"/>
     </font>
   </fonts>
   <fills count="35">
@@ -1590,152 +1728,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1774,6 +1912,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2161,15 +2302,18 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:F7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="47.4326923076923" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="70" customWidth="1"/>
-    <col min="4" max="7" width="10" customWidth="1"/>
+    <col min="1" max="1" width="44.0673076923077" customWidth="1"/>
+    <col min="2" max="2" width="27.7211538461538" customWidth="1"/>
+    <col min="3" max="3" width="24.9903846153846" customWidth="1"/>
+    <col min="4" max="4" width="21.3076923076923" customWidth="1"/>
+    <col min="5" max="5" width="26.125" customWidth="1"/>
+    <col min="6" max="6" width="22.4326923076923" customWidth="1"/>
+    <col min="7" max="7" width="27.5576923076923" customWidth="1"/>
     <col min="8" max="8" width="80" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2277,7 +2421,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" ht="61" spans="1:8">
+    <row r="5" ht="97" customHeight="1" spans="1:8">
       <c r="A5" s="6" t="s">
         <v>21</v>
       </c>
@@ -2299,7 +2443,7 @@
       <c r="G5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="13" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2354,7 +2498,7 @@
       <c r="A8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C8" s="2" t="s">

--- a/demo/okrTemplate.xlsx
+++ b/demo/okrTemplate.xlsx
@@ -90,7 +90,7 @@
     </r>
   </si>
   <si>
-    <t>{{name}}</t>
+    <t>{{name}}{{group}}</t>
   </si>
   <si>
     <t>{{group}}</t>
@@ -179,48 +179,10 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>{{okrs.category</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <charset val="0"/>
-      </rPr>
-      <t>_merge</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <charset val="0"/>
-      </rPr>
-      <t>}}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>{{okrs.info</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <charset val="0"/>
-      </rPr>
-      <t>_merge</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <charset val="0"/>
-      </rPr>
-      <t>}}</t>
-    </r>
+    <t>{{okrs.category_merge merge:1;}}</t>
+  </si>
+  <si>
+    <t>{{okrs.info_merge merge:1}}</t>
   </si>
   <si>
     <t>{{okrs.keyResult}}</t>
@@ -238,34 +200,7 @@
     <t>{{okrs.weightScore}}</t>
   </si>
   <si>
-    <r>
-      <t>这段文字会被自动重复并合并，如果只要重复不合并则要去掉_merge后缀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <charset val="0"/>
-      </rPr>
-      <t>{{okrs.remark</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <charset val="0"/>
-      </rPr>
-      <t>_merge</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <charset val="0"/>
-      </rPr>
-      <t>}}</t>
-    </r>
+    <t>内容占位{{okrs.placehold}}</t>
   </si>
   <si>
     <t>绩效评估总得分</t>
@@ -281,43 +216,7 @@
     <t>{{reviewResult}}</t>
   </si>
   <si>
-    <r>
-      <t>线上事故{{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="0"/>
-      </rPr>
-      <t>_header_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="0"/>
-      </rPr>
-      <t>accident.title</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="0"/>
-      </rPr>
-      <t>_merge</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="0"/>
-      </rPr>
-      <t>}}</t>
-    </r>
+    <t>线上事故{{_accident.title_merge merge:1;header:1}}</t>
   </si>
   <si>
     <t>事故等级</t>
@@ -326,26 +225,7 @@
     <t>事故描述</t>
   </si>
   <si>
-    <r>
-      <t>{{accident.title</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <charset val="0"/>
-      </rPr>
-      <t>_merge</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <charset val="0"/>
-      </rPr>
-      <t>}}</t>
-    </r>
+    <t>{{accident.title_merge merge:1}}</t>
   </si>
   <si>
     <t>{{accident.level}}</t>
@@ -361,6 +241,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体-简"/>
+        <charset val="0"/>
+      </rPr>
       <t>绩效评估规则：</t>
     </r>
     <r>
@@ -626,6 +511,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="0"/>
+      </rPr>
       <t>线上事故对绩效等级影响</t>
     </r>
     <r>
@@ -1166,12 +1056,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1201,10 +1091,11 @@
       <charset val="0"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFC00000"/>
-      <name val="方正书宋_GBK"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1222,24 +1113,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1251,16 +1134,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1276,8 +1167,15 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1307,16 +1205,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1329,38 +1220,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Verdana"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="方正书宋_GBK"/>
-      <charset val="0"/>
     </font>
   </fonts>
   <fills count="35">
@@ -1384,13 +1256,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1402,67 +1352,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1474,7 +1388,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1486,19 +1400,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1510,61 +1424,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1650,15 +1522,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1678,22 +1541,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1723,150 +1571,174 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1913,7 +1785,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2302,13 +2174,13 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A1" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="44.0673076923077" customWidth="1"/>
-    <col min="2" max="2" width="27.7211538461538" customWidth="1"/>
+    <col min="1" max="1" width="73.7115384615385" customWidth="1"/>
+    <col min="2" max="2" width="60.7307692307692" customWidth="1"/>
     <col min="3" max="3" width="24.9903846153846" customWidth="1"/>
     <col min="4" max="4" width="21.3076923076923" customWidth="1"/>
     <col min="5" max="5" width="26.125" customWidth="1"/>
@@ -2395,7 +2267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="58" spans="1:8">
+    <row r="4" ht="29" spans="1:8">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -2447,7 +2319,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" ht="46" spans="1:8">
+    <row r="6" spans="1:8">
       <c r="A6" s="3" t="s">
         <v>29</v>
       </c>
